--- a/dbGen.xlsx
+++ b/dbGen.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samke\Documents\Projects\Shared\UniversityDB\UniversityDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\public_html\Teaching\DatabaseSystems\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22620" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="125">
   <si>
     <t>Department</t>
   </si>
@@ -95,9 +95,6 @@
     <t>credits</t>
   </si>
   <si>
-    <t>1-SF*2500</t>
-  </si>
-  <si>
     <t>SF*2500*0.9</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>prereq_id</t>
   </si>
   <si>
-    <t>SF*2500*90</t>
-  </si>
-  <si>
     <t>There is approximately 0.9% prereq per course, on average</t>
   </si>
   <si>
@@ -230,9 +224,6 @@
     <t>valid instructor id</t>
   </si>
   <si>
-    <t>valid semester for the course/section</t>
-  </si>
-  <si>
     <t>valid year for the course/section/semester</t>
   </si>
   <si>
@@ -272,12 +263,6 @@
     <t>All couse sections must be covered by at least one instructor, a small number (&lt;10%) have more than one instructor</t>
   </si>
   <si>
-    <t>SF*2500*6</t>
-  </si>
-  <si>
-    <t>Students take 6 courses on average</t>
-  </si>
-  <si>
     <t>Every student must take at least 1 class</t>
   </si>
   <si>
@@ -296,27 +281,18 @@
     <t>Your program should then generate 11 files containing the following data.</t>
   </si>
   <si>
-    <t>Each building has between 0 and 30 classrooms</t>
-  </si>
-  <si>
     <t>Approximately 10% of students don't have an advisor</t>
   </si>
   <si>
     <t>SF*100*2.5</t>
   </si>
   <si>
-    <t>integer 1-SF*100*2.5</t>
-  </si>
-  <si>
     <t>SF*100*2.5*3</t>
   </si>
   <si>
     <t>random integer 1-SF*100*2.5</t>
   </si>
   <si>
-    <t>random integer 1-SF*100*2.5, not equal to course_id, and not circular(?)</t>
-  </si>
-  <si>
     <t>SF*100*2.5*3*1.1</t>
   </si>
   <si>
@@ -360,12 +336,75 @@
   </si>
   <si>
     <t>17 entries total</t>
+  </si>
+  <si>
+    <t>Instructor</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>valid department name</t>
+  </si>
+  <si>
+    <t>random value between 30k-150k</t>
+  </si>
+  <si>
+    <t>SF*100</t>
+  </si>
+  <si>
+    <t>integer numbered sequentially 1-20</t>
+  </si>
+  <si>
+    <t>Each building has between 1 and 30 classrooms</t>
+  </si>
+  <si>
+    <t>integer, numbered sequentially 1-SF*2500</t>
+  </si>
+  <si>
+    <t>integer, numbered sequentially 1 and SF*100</t>
+  </si>
+  <si>
+    <t>numeric, 6 digits total</t>
+  </si>
+  <si>
+    <t>integer numbered sequentially 1-SF*100*2.5</t>
+  </si>
+  <si>
+    <t>SF*100*2.5*0.9</t>
+  </si>
+  <si>
+    <t>random integer 1-SF*100*2.5, not equal to course_id</t>
+  </si>
+  <si>
+    <t>2 chars</t>
+  </si>
+  <si>
+    <t>valid semester for the course/section (spring or fall)</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>Below is an alternative that merges the time-slot and time-slot-detail tables</t>
+  </si>
+  <si>
+    <t>MWF 8,9,10,11,12,1,2,3,4,5; TR 8,9:30,11,12:30,2,3:30,5</t>
+  </si>
+  <si>
+    <t>MWF 9,10,11,12,1,2,3,4,5; TR 9:15,10:45,1:45,3:15,4:45,6:15</t>
+  </si>
+  <si>
+    <t>SF*2500*4</t>
+  </si>
+  <si>
+    <t>Students take 4 courses on average, at least 1 and at most 7 (Nick); this equates to about 13.3 students per section</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -699,22 +738,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L67"/>
+  <dimension ref="A2:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -722,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -730,13 +769,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -744,13 +783,13 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -758,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -766,13 +805,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -780,121 +819,121 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -905,7 +944,7 @@
         <v>10</v>
       </c>
       <c r="J24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -913,10 +952,10 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -924,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
@@ -935,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -946,7 +985,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -957,10 +996,10 @@
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L30" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -968,10 +1007,10 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -982,10 +1021,10 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -996,10 +1035,10 @@
         <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1007,10 +1046,10 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1018,7 +1057,7 @@
         <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F37" t="s">
         <v>7</v>
@@ -1029,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -1040,21 +1079,21 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1062,38 +1101,38 @@
         <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F43" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1101,49 +1140,49 @@
         <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -1151,223 +1190,317 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F54" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C55" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" t="s">
-        <v>67</v>
-      </c>
-      <c r="K55" t="s">
-        <v>81</v>
+      <c r="D55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J58" t="s">
         <v>107</v>
       </c>
-      <c r="D56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F56" t="s">
-        <v>66</v>
-      </c>
-      <c r="K56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57" t="s">
-        <v>105</v>
-      </c>
-      <c r="F57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" t="s">
-        <v>107</v>
-      </c>
-      <c r="D58" t="s">
-        <v>103</v>
-      </c>
-      <c r="F58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" t="s">
-        <v>107</v>
-      </c>
-      <c r="D59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F59" t="s">
-        <v>69</v>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>72</v>
+      <c r="A61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" t="s">
+        <v>91</v>
       </c>
       <c r="F61" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="K61" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D62" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K62" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F63" t="s">
-        <v>55</v>
-      </c>
-      <c r="K63" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" t="s">
+        <v>95</v>
+      </c>
+      <c r="F64" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C64" t="s">
-        <v>107</v>
-      </c>
-      <c r="D64" t="s">
-        <v>105</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="C65" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" t="s">
+        <v>123</v>
+      </c>
+      <c r="K67" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" t="s">
+        <v>71</v>
+      </c>
+      <c r="K68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69" t="s">
+        <v>53</v>
+      </c>
+      <c r="K69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" t="s">
+        <v>96</v>
+      </c>
+      <c r="F72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" t="s">
+        <v>92</v>
+      </c>
+      <c r="F73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65" t="s">
-        <v>107</v>
-      </c>
-      <c r="D65" t="s">
-        <v>102</v>
-      </c>
-      <c r="F65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C66" t="s">
-        <v>107</v>
-      </c>
-      <c r="D66" t="s">
-        <v>104</v>
-      </c>
-      <c r="F66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>73</v>
-      </c>
-      <c r="D67" t="s">
-        <v>100</v>
-      </c>
-      <c r="F67" t="s">
-        <v>79</v>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>119</v>
+      </c>
+      <c r="D80" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
